--- a/dataanalysis/data/predictions/1400/08081432_1433.xlsx
+++ b/dataanalysis/data/predictions/1400/08081432_1433.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="158">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-08</t>
   </si>
   <si>
@@ -485,12 +488,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -848,13 +845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AI75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,19 +954,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300066</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>9.199999999999999</v>
@@ -987,7 +987,7 @@
         <v>166688.51</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1028,8 +1028,23 @@
       <c r="W2">
         <v>0.83</v>
       </c>
+      <c r="X2">
+        <v>1.97</v>
+      </c>
+      <c r="Y2">
+        <v>7.86</v>
+      </c>
+      <c r="Z2">
+        <v>10.39</v>
+      </c>
       <c r="AC2" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1037,22 +1052,25 @@
       <c r="AG2">
         <v>1.388236165046692</v>
       </c>
-      <c r="AH2" t="s">
-        <v>157</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300069</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>7.89</v>
@@ -1070,7 +1088,7 @@
         <v>57660.4</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1111,8 +1129,23 @@
       <c r="W3">
         <v>0.48</v>
       </c>
+      <c r="X3">
+        <v>-20</v>
+      </c>
+      <c r="Y3">
+        <v>23.88</v>
+      </c>
+      <c r="Z3">
+        <v>-19.16</v>
+      </c>
       <c r="AC3" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1120,22 +1153,25 @@
       <c r="AG3">
         <v>2.494401454925537</v>
       </c>
-      <c r="AH3" t="s">
-        <v>158</v>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300199</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>4.31</v>
@@ -1153,7 +1189,7 @@
         <v>350217.73</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -1194,8 +1230,23 @@
       <c r="W4">
         <v>0.68</v>
       </c>
+      <c r="X4">
+        <v>4.76</v>
+      </c>
+      <c r="Y4">
+        <v>25.48</v>
+      </c>
+      <c r="Z4">
+        <v>5.38</v>
+      </c>
       <c r="AC4" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1203,22 +1254,25 @@
       <c r="AG4">
         <v>5.849558353424072</v>
       </c>
-      <c r="AH4" t="s">
-        <v>157</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300218</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>13.84</v>
@@ -1236,7 +1290,7 @@
         <v>94656.92</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1277,8 +1331,23 @@
       <c r="W5">
         <v>0.19</v>
       </c>
+      <c r="X5">
+        <v>0.67</v>
+      </c>
+      <c r="Y5">
+        <v>25.3</v>
+      </c>
+      <c r="Z5">
+        <v>6.04</v>
+      </c>
       <c r="AC5" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1286,22 +1355,25 @@
       <c r="AG5">
         <v>3.610000848770142</v>
       </c>
-      <c r="AH5" t="s">
-        <v>157</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300224</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-3.84</v>
@@ -1319,7 +1391,7 @@
         <v>209929.8</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1360,8 +1432,23 @@
       <c r="W6">
         <v>-1.83</v>
       </c>
+      <c r="X6">
+        <v>-1.58</v>
+      </c>
+      <c r="Y6">
+        <v>18.39</v>
+      </c>
+      <c r="Z6">
+        <v>0.6</v>
+      </c>
       <c r="AC6" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1369,22 +1456,25 @@
       <c r="AG6">
         <v>-0.08833668380975723</v>
       </c>
-      <c r="AH6" t="s">
-        <v>157</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300289</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>13.72</v>
@@ -1402,7 +1492,7 @@
         <v>179405.21</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1443,8 +1533,23 @@
       <c r="W7">
         <v>-4.81</v>
       </c>
+      <c r="X7">
+        <v>-3.02</v>
+      </c>
+      <c r="Y7">
+        <v>11.57</v>
+      </c>
+      <c r="Z7">
+        <v>4.14</v>
+      </c>
       <c r="AC7" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1452,22 +1557,25 @@
       <c r="AG7">
         <v>7.900514125823975</v>
       </c>
-      <c r="AH7" t="s">
-        <v>157</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300322</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>5.94</v>
@@ -1485,7 +1593,7 @@
         <v>405510.5</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1526,8 +1634,23 @@
       <c r="W8">
         <v>-3.32</v>
       </c>
+      <c r="X8">
+        <v>-0.29</v>
+      </c>
+      <c r="Y8">
+        <v>27.2</v>
+      </c>
+      <c r="Z8">
+        <v>-1.63</v>
+      </c>
       <c r="AC8" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1535,22 +1658,25 @@
       <c r="AG8">
         <v>7.773991584777832</v>
       </c>
-      <c r="AH8" t="s">
-        <v>157</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300329</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-6.12</v>
@@ -1568,7 +1694,7 @@
         <v>26618.31</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1609,8 +1735,23 @@
       <c r="W9">
         <v>-0.42</v>
       </c>
+      <c r="X9">
+        <v>0.16</v>
+      </c>
+      <c r="Y9">
+        <v>12.42</v>
+      </c>
+      <c r="Z9">
+        <v>2.56</v>
+      </c>
       <c r="AC9" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1618,22 +1759,25 @@
       <c r="AG9">
         <v>2.002078056335449</v>
       </c>
-      <c r="AH9" t="s">
-        <v>157</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300368</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>2.38</v>
@@ -1651,7 +1795,7 @@
         <v>187851.8</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1692,8 +1836,23 @@
       <c r="W10">
         <v>-1.76</v>
       </c>
+      <c r="X10">
+        <v>17.51</v>
+      </c>
+      <c r="Y10">
+        <v>16.79</v>
+      </c>
+      <c r="Z10">
+        <v>18.24</v>
+      </c>
       <c r="AC10" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1701,22 +1860,25 @@
       <c r="AG10">
         <v>-3.647145986557007</v>
       </c>
-      <c r="AH10" t="s">
-        <v>157</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300436</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.2</v>
@@ -1734,7 +1896,7 @@
         <v>144195.03</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K11">
         <v>27</v>
@@ -1775,8 +1937,23 @@
       <c r="W11">
         <v>0.3</v>
       </c>
+      <c r="X11">
+        <v>11.7</v>
+      </c>
+      <c r="Y11">
+        <v>134.53</v>
+      </c>
+      <c r="Z11">
+        <v>11.87</v>
+      </c>
       <c r="AC11" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1784,22 +1961,25 @@
       <c r="AG11">
         <v>4.154281616210938</v>
       </c>
-      <c r="AH11" t="s">
-        <v>157</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300455</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>11.88</v>
@@ -1817,7 +1997,7 @@
         <v>245787.7</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1858,8 +2038,23 @@
       <c r="W12">
         <v>0.98</v>
       </c>
+      <c r="X12">
+        <v>2.84</v>
+      </c>
+      <c r="Y12">
+        <v>20.4</v>
+      </c>
+      <c r="Z12">
+        <v>2.15</v>
+      </c>
       <c r="AC12" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1867,22 +2062,25 @@
       <c r="AG12">
         <v>1.987003684043884</v>
       </c>
-      <c r="AH12" t="s">
-        <v>157</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300539</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>4.25</v>
@@ -1900,7 +2098,7 @@
         <v>59178</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1941,8 +2139,23 @@
       <c r="W13">
         <v>1.38</v>
       </c>
+      <c r="X13">
+        <v>5.19</v>
+      </c>
+      <c r="Y13">
+        <v>27.8</v>
+      </c>
+      <c r="Z13">
+        <v>6.84</v>
+      </c>
       <c r="AC13" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -1950,22 +2163,25 @@
       <c r="AG13">
         <v>5.758118152618408</v>
       </c>
-      <c r="AH13" t="s">
-        <v>158</v>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300572</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-4.53</v>
@@ -1983,7 +2199,7 @@
         <v>65091.29</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2024,8 +2240,23 @@
       <c r="W14">
         <v>-0.49</v>
       </c>
+      <c r="X14">
+        <v>-0.11</v>
+      </c>
+      <c r="Y14">
+        <v>27.2</v>
+      </c>
+      <c r="Z14">
+        <v>-1.48</v>
+      </c>
       <c r="AC14" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2033,22 +2264,25 @@
       <c r="AG14">
         <v>4.971019744873047</v>
       </c>
-      <c r="AH14" t="s">
-        <v>157</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300584</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>2.31</v>
@@ -2066,7 +2300,7 @@
         <v>88460.75999999999</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2107,8 +2341,23 @@
       <c r="W15">
         <v>-0.02</v>
       </c>
+      <c r="X15">
+        <v>-0.76</v>
+      </c>
+      <c r="Y15">
+        <v>50.83</v>
+      </c>
+      <c r="Z15">
+        <v>3.61</v>
+      </c>
       <c r="AC15" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2116,22 +2365,25 @@
       <c r="AG15">
         <v>5.164253234863281</v>
       </c>
-      <c r="AH15" t="s">
-        <v>157</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300588</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>5.37</v>
@@ -2149,7 +2401,7 @@
         <v>58003.55</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2190,8 +2442,23 @@
       <c r="W16">
         <v>0.58</v>
       </c>
+      <c r="X16">
+        <v>-4.39</v>
+      </c>
+      <c r="Y16">
+        <v>21.1</v>
+      </c>
+      <c r="Z16">
+        <v>0.52</v>
+      </c>
       <c r="AC16" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2199,22 +2466,25 @@
       <c r="AG16">
         <v>3.099004507064819</v>
       </c>
-      <c r="AH16" t="s">
-        <v>157</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300591</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-5.59</v>
@@ -2232,7 +2502,7 @@
         <v>176704.91</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2273,8 +2543,23 @@
       <c r="W17">
         <v>-2.36</v>
       </c>
+      <c r="X17">
+        <v>-0.14</v>
+      </c>
+      <c r="Y17">
+        <v>14.49</v>
+      </c>
+      <c r="Z17">
+        <v>5.84</v>
+      </c>
       <c r="AC17" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2282,22 +2567,25 @@
       <c r="AG17">
         <v>3.367962837219238</v>
       </c>
-      <c r="AH17" t="s">
-        <v>157</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300600</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-5.72</v>
@@ -2315,7 +2603,7 @@
         <v>130506.96</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -2356,8 +2644,23 @@
       <c r="W18">
         <v>-0.62</v>
       </c>
+      <c r="X18">
+        <v>1.66</v>
+      </c>
+      <c r="Y18">
+        <v>22.08</v>
+      </c>
+      <c r="Z18">
+        <v>4.74</v>
+      </c>
       <c r="AC18" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2365,22 +2668,25 @@
       <c r="AG18">
         <v>3.46455717086792</v>
       </c>
-      <c r="AH18" t="s">
-        <v>157</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300609</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.44</v>
@@ -2398,7 +2704,7 @@
         <v>35150.68</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -2439,8 +2745,23 @@
       <c r="W19">
         <v>-0.34</v>
       </c>
+      <c r="X19">
+        <v>-3.41</v>
+      </c>
+      <c r="Y19">
+        <v>46.62</v>
+      </c>
+      <c r="Z19">
+        <v>-0.19</v>
+      </c>
       <c r="AC19" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2448,22 +2769,25 @@
       <c r="AG19">
         <v>4.354518413543701</v>
       </c>
-      <c r="AH19" t="s">
-        <v>157</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300644</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-5.01</v>
@@ -2481,7 +2805,7 @@
         <v>47529.85</v>
       </c>
       <c r="J20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2522,8 +2846,23 @@
       <c r="W20">
         <v>-0.74</v>
       </c>
+      <c r="X20">
+        <v>2.52</v>
+      </c>
+      <c r="Y20">
+        <v>40.5</v>
+      </c>
+      <c r="Z20">
+        <v>5.33</v>
+      </c>
       <c r="AC20" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2531,22 +2870,25 @@
       <c r="AG20">
         <v>1.399654269218445</v>
       </c>
-      <c r="AH20" t="s">
-        <v>157</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300648</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>2.55</v>
@@ -2564,7 +2906,7 @@
         <v>52645.88</v>
       </c>
       <c r="J21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2605,8 +2947,23 @@
       <c r="W21">
         <v>-0.04</v>
       </c>
+      <c r="X21">
+        <v>0.86</v>
+      </c>
+      <c r="Y21">
+        <v>58.46</v>
+      </c>
+      <c r="Z21">
+        <v>3.98</v>
+      </c>
       <c r="AC21" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2614,22 +2971,25 @@
       <c r="AG21">
         <v>1.658465504646301</v>
       </c>
-      <c r="AH21" t="s">
-        <v>157</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300684</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>6.06</v>
@@ -2647,7 +3007,7 @@
         <v>113749.39</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -2688,8 +3048,23 @@
       <c r="W22">
         <v>0.11</v>
       </c>
+      <c r="X22">
+        <v>2.06</v>
+      </c>
+      <c r="Y22">
+        <v>33.52</v>
+      </c>
+      <c r="Z22">
+        <v>4.13</v>
+      </c>
       <c r="AC22" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2697,22 +3072,25 @@
       <c r="AG22">
         <v>9.537322998046875</v>
       </c>
-      <c r="AH22" t="s">
-        <v>157</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300689</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-1.19</v>
@@ -2730,7 +3108,7 @@
         <v>55567.53</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2771,8 +3149,23 @@
       <c r="W23">
         <v>0.25</v>
       </c>
+      <c r="X23">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>67.5</v>
+      </c>
+      <c r="Z23">
+        <v>9.9</v>
+      </c>
       <c r="AC23" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2780,22 +3173,25 @@
       <c r="AG23">
         <v>6.470125675201416</v>
       </c>
-      <c r="AH23" t="s">
-        <v>158</v>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300696</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>7.05</v>
@@ -2813,7 +3209,7 @@
         <v>126515.11</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2854,8 +3250,23 @@
       <c r="W24">
         <v>1.16</v>
       </c>
+      <c r="X24">
+        <v>-2.59</v>
+      </c>
+      <c r="Y24">
+        <v>33.97</v>
+      </c>
+      <c r="Z24">
+        <v>1.19</v>
+      </c>
       <c r="AC24" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2863,22 +3274,25 @@
       <c r="AG24">
         <v>2.684804439544678</v>
       </c>
-      <c r="AH24" t="s">
-        <v>157</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300703</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>7.29</v>
@@ -2896,7 +3310,7 @@
         <v>96913.05</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2937,8 +3351,23 @@
       <c r="W25">
         <v>0.28</v>
       </c>
+      <c r="X25">
+        <v>4.5</v>
+      </c>
+      <c r="Y25">
+        <v>32.83</v>
+      </c>
+      <c r="Z25">
+        <v>6.8</v>
+      </c>
       <c r="AC25" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2946,22 +3375,25 @@
       <c r="AG25">
         <v>0.9916433691978455</v>
       </c>
-      <c r="AH25" t="s">
-        <v>157</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300706</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-4.93</v>
@@ -2979,7 +3411,7 @@
         <v>207990.45</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K26">
         <v>11</v>
@@ -3020,8 +3452,23 @@
       <c r="W26">
         <v>-1.48</v>
       </c>
+      <c r="X26">
+        <v>2.23</v>
+      </c>
+      <c r="Y26">
+        <v>46.86</v>
+      </c>
+      <c r="Z26">
+        <v>3.42</v>
+      </c>
       <c r="AC26" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -3029,22 +3476,25 @@
       <c r="AG26">
         <v>5.604913234710693</v>
       </c>
-      <c r="AH26" t="s">
-        <v>157</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300731</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>3.16</v>
@@ -3062,7 +3512,7 @@
         <v>123308.2</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3103,8 +3553,23 @@
       <c r="W27">
         <v>0.97</v>
       </c>
+      <c r="X27">
+        <v>4.34</v>
+      </c>
+      <c r="Y27">
+        <v>52.88</v>
+      </c>
+      <c r="Z27">
+        <v>7.26</v>
+      </c>
       <c r="AC27" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3112,22 +3577,25 @@
       <c r="AG27">
         <v>-0.1225551664829254</v>
       </c>
-      <c r="AH27" t="s">
-        <v>157</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300732</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>15.37</v>
@@ -3145,7 +3613,7 @@
         <v>96037.45</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -3186,8 +3654,23 @@
       <c r="W28">
         <v>1</v>
       </c>
+      <c r="X28">
+        <v>0.33</v>
+      </c>
+      <c r="Y28">
+        <v>12.4</v>
+      </c>
+      <c r="Z28">
+        <v>-0.48</v>
+      </c>
       <c r="AC28" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3195,22 +3678,25 @@
       <c r="AG28">
         <v>3.038033246994019</v>
       </c>
-      <c r="AH28" t="s">
-        <v>157</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300733</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-6.55</v>
@@ -3228,7 +3714,7 @@
         <v>58793.1</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -3269,8 +3755,23 @@
       <c r="W29">
         <v>-0.53</v>
       </c>
+      <c r="X29">
+        <v>-1.92</v>
+      </c>
+      <c r="Y29">
+        <v>23.9</v>
+      </c>
+      <c r="Z29">
+        <v>1.49</v>
+      </c>
       <c r="AC29" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3278,22 +3779,25 @@
       <c r="AG29">
         <v>3.058080196380615</v>
       </c>
-      <c r="AH29" t="s">
-        <v>157</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300753</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>2.92</v>
@@ -3311,7 +3815,7 @@
         <v>120400.14</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3352,8 +3856,23 @@
       <c r="W30">
         <v>-5.27</v>
       </c>
+      <c r="X30">
+        <v>1.93</v>
+      </c>
+      <c r="Y30">
+        <v>35.17</v>
+      </c>
+      <c r="Z30">
+        <v>-0.31</v>
+      </c>
       <c r="AC30" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3361,22 +3880,25 @@
       <c r="AG30">
         <v>16.51846504211426</v>
       </c>
-      <c r="AH30" t="s">
-        <v>157</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300767</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-1.3</v>
@@ -3394,7 +3916,7 @@
         <v>42596.52</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3435,8 +3957,23 @@
       <c r="W31">
         <v>-0.13</v>
       </c>
+      <c r="X31">
+        <v>0.66</v>
+      </c>
+      <c r="Y31">
+        <v>17.08</v>
+      </c>
+      <c r="Z31">
+        <v>2.52</v>
+      </c>
       <c r="AC31" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3444,22 +3981,25 @@
       <c r="AG31">
         <v>5.513113021850586</v>
       </c>
-      <c r="AH31" t="s">
-        <v>157</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300780</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>19.98</v>
@@ -3477,7 +4017,7 @@
         <v>55723.46</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3518,8 +4058,23 @@
       <c r="W32">
         <v>6.07</v>
       </c>
+      <c r="X32">
+        <v>1.18</v>
+      </c>
+      <c r="Y32">
+        <v>23.18</v>
+      </c>
+      <c r="Z32">
+        <v>9.029999999999999</v>
+      </c>
       <c r="AC32" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3527,22 +4082,25 @@
       <c r="AG32">
         <v>11.13584613800049</v>
       </c>
-      <c r="AH32" t="s">
-        <v>158</v>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300830</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-11.44</v>
@@ -3560,7 +4118,7 @@
         <v>114936.38</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3601,8 +4159,23 @@
       <c r="W33">
         <v>-4.5</v>
       </c>
+      <c r="X33">
+        <v>2.37</v>
+      </c>
+      <c r="Y33">
+        <v>13.73</v>
+      </c>
+      <c r="Z33">
+        <v>3.08</v>
+      </c>
       <c r="AC33" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3610,22 +4183,25 @@
       <c r="AG33">
         <v>2.672428131103516</v>
       </c>
-      <c r="AH33" t="s">
-        <v>157</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300875</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0.08</v>
@@ -3643,7 +4219,7 @@
         <v>137585.56</v>
       </c>
       <c r="J34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3684,8 +4260,23 @@
       <c r="W34">
         <v>-0.02</v>
       </c>
+      <c r="X34">
+        <v>4.44</v>
+      </c>
+      <c r="Y34">
+        <v>68.53</v>
+      </c>
+      <c r="Z34">
+        <v>10.94</v>
+      </c>
       <c r="AC34" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3693,22 +4284,25 @@
       <c r="AG34">
         <v>1.274129390716553</v>
       </c>
-      <c r="AH34" t="s">
-        <v>157</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300885</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-6.69</v>
@@ -3726,7 +4320,7 @@
         <v>76342.48</v>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K35">
         <v>13</v>
@@ -3767,8 +4361,23 @@
       <c r="W35">
         <v>-0.6</v>
       </c>
+      <c r="X35">
+        <v>5.25</v>
+      </c>
+      <c r="Y35">
+        <v>31.26</v>
+      </c>
+      <c r="Z35">
+        <v>8.73</v>
+      </c>
       <c r="AC35" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3776,22 +4385,25 @@
       <c r="AG35">
         <v>2.958466768264771</v>
       </c>
-      <c r="AH35" t="s">
-        <v>157</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300906</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>7.02</v>
@@ -3809,7 +4421,7 @@
         <v>37689.14</v>
       </c>
       <c r="J36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3850,8 +4462,23 @@
       <c r="W36">
         <v>0.27</v>
       </c>
+      <c r="X36">
+        <v>-3.09</v>
+      </c>
+      <c r="Y36">
+        <v>37.77</v>
+      </c>
+      <c r="Z36">
+        <v>-0.87</v>
+      </c>
       <c r="AC36" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3859,22 +4486,25 @@
       <c r="AG36">
         <v>2.878016233444214</v>
       </c>
-      <c r="AH36" t="s">
-        <v>157</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300916</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0.44</v>
@@ -3892,7 +4522,7 @@
         <v>29712.36</v>
       </c>
       <c r="J37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3933,8 +4563,23 @@
       <c r="W37">
         <v>0.66</v>
       </c>
+      <c r="X37">
+        <v>6.76</v>
+      </c>
+      <c r="Y37">
+        <v>45.82</v>
+      </c>
+      <c r="Z37">
+        <v>10.76</v>
+      </c>
       <c r="AC37" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3942,22 +4587,25 @@
       <c r="AG37">
         <v>3.644313335418701</v>
       </c>
-      <c r="AH37" t="s">
-        <v>157</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300943</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3.54</v>
@@ -3975,7 +4623,7 @@
         <v>76064.57000000001</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -4016,8 +4664,23 @@
       <c r="W38">
         <v>-0.17</v>
       </c>
+      <c r="X38">
+        <v>3.99</v>
+      </c>
+      <c r="Y38">
+        <v>19.85</v>
+      </c>
+      <c r="Z38">
+        <v>5.92</v>
+      </c>
       <c r="AC38" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4025,22 +4688,25 @@
       <c r="AG38">
         <v>13.88402080535889</v>
       </c>
-      <c r="AH38" t="s">
-        <v>157</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300965</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-6.75</v>
@@ -4058,7 +4724,7 @@
         <v>33553.15</v>
       </c>
       <c r="J39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -4099,8 +4765,23 @@
       <c r="W39">
         <v>-1.03</v>
       </c>
+      <c r="X39">
+        <v>-0.88</v>
+      </c>
+      <c r="Y39">
+        <v>84.38</v>
+      </c>
+      <c r="Z39">
+        <v>2.93</v>
+      </c>
       <c r="AC39" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4108,22 +4789,25 @@
       <c r="AG39">
         <v>3.470238208770752</v>
       </c>
-      <c r="AH39" t="s">
-        <v>157</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300981</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>0.8</v>
@@ -4141,7 +4825,7 @@
         <v>82882.32000000001</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4182,8 +4866,23 @@
       <c r="W40">
         <v>0.1</v>
       </c>
+      <c r="X40">
+        <v>1.09</v>
+      </c>
+      <c r="Y40">
+        <v>16.97</v>
+      </c>
+      <c r="Z40">
+        <v>3.86</v>
+      </c>
       <c r="AC40" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4191,22 +4890,25 @@
       <c r="AG40">
         <v>4.422916412353516</v>
       </c>
-      <c r="AH40" t="s">
-        <v>157</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301005</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>1.9</v>
@@ -4224,7 +4926,7 @@
         <v>76262.17999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4265,8 +4967,23 @@
       <c r="W41">
         <v>-0.03</v>
       </c>
+      <c r="X41">
+        <v>20</v>
+      </c>
+      <c r="Y41">
+        <v>55.87</v>
+      </c>
+      <c r="Z41">
+        <v>19.43</v>
+      </c>
       <c r="AC41" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4274,22 +4991,25 @@
       <c r="AG41">
         <v>2.917485237121582</v>
       </c>
-      <c r="AH41" t="s">
-        <v>157</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301022</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.42</v>
@@ -4307,7 +5027,7 @@
         <v>26174.09</v>
       </c>
       <c r="J42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4348,8 +5068,23 @@
       <c r="W42">
         <v>-0.08</v>
       </c>
+      <c r="X42">
+        <v>20</v>
+      </c>
+      <c r="Y42">
+        <v>47.82</v>
+      </c>
+      <c r="Z42">
+        <v>16.89</v>
+      </c>
       <c r="AC42" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4357,22 +5092,25 @@
       <c r="AG42">
         <v>3.326501846313477</v>
       </c>
-      <c r="AH42" t="s">
-        <v>157</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301038</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>19.97</v>
@@ -4390,7 +5128,7 @@
         <v>123706.71</v>
       </c>
       <c r="J43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K43">
         <v>9</v>
@@ -4431,8 +5169,23 @@
       <c r="W43">
         <v>1.08</v>
       </c>
+      <c r="X43">
+        <v>8.35</v>
+      </c>
+      <c r="Y43">
+        <v>39.98</v>
+      </c>
+      <c r="Z43">
+        <v>14.33</v>
+      </c>
       <c r="AC43" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>1</v>
@@ -4440,22 +5193,25 @@
       <c r="AG43">
         <v>7.669578552246094</v>
       </c>
-      <c r="AH43" t="s">
-        <v>157</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301052</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.46</v>
@@ -4473,7 +5229,7 @@
         <v>23377.64</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K44">
         <v>6</v>
@@ -4514,8 +5270,23 @@
       <c r="W44">
         <v>-0.37</v>
       </c>
+      <c r="X44">
+        <v>2.83</v>
+      </c>
+      <c r="Y44">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="Z44">
+        <v>4.74</v>
+      </c>
       <c r="AC44" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4523,22 +5294,25 @@
       <c r="AG44">
         <v>3.997697591781616</v>
       </c>
-      <c r="AH44" t="s">
-        <v>157</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301069</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-4.88</v>
@@ -4556,7 +5330,7 @@
         <v>71124.00999999999</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4597,8 +5371,23 @@
       <c r="W45">
         <v>-0.09</v>
       </c>
+      <c r="X45">
+        <v>9.74</v>
+      </c>
+      <c r="Y45">
+        <v>23.33</v>
+      </c>
+      <c r="Z45">
+        <v>12.98</v>
+      </c>
       <c r="AC45" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4606,22 +5395,25 @@
       <c r="AG45">
         <v>11.44169425964355</v>
       </c>
-      <c r="AH45" t="s">
-        <v>157</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301076</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-12.03</v>
@@ -4639,7 +5431,7 @@
         <v>125839.31</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4680,8 +5472,23 @@
       <c r="W46">
         <v>-0.96</v>
       </c>
+      <c r="X46">
+        <v>14.63</v>
+      </c>
+      <c r="Y46">
+        <v>51.45</v>
+      </c>
+      <c r="Z46">
+        <v>18.85</v>
+      </c>
       <c r="AC46" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4689,22 +5496,25 @@
       <c r="AG46">
         <v>2.464088439941406</v>
       </c>
-      <c r="AH46" t="s">
-        <v>157</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301095</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-4.52</v>
@@ -4722,7 +5532,7 @@
         <v>72284.99000000001</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K47">
         <v>8</v>
@@ -4763,8 +5573,23 @@
       <c r="W47">
         <v>-0.84</v>
       </c>
+      <c r="X47">
+        <v>6.79</v>
+      </c>
+      <c r="Y47">
+        <v>81.77</v>
+      </c>
+      <c r="Z47">
+        <v>12.2</v>
+      </c>
       <c r="AC47" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4772,22 +5597,25 @@
       <c r="AG47">
         <v>4.599964618682861</v>
       </c>
-      <c r="AH47" t="s">
-        <v>157</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301117</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-5.11</v>
@@ -4805,7 +5633,7 @@
         <v>111776.18</v>
       </c>
       <c r="J48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -4846,8 +5674,23 @@
       <c r="W48">
         <v>0.86</v>
       </c>
+      <c r="X48">
+        <v>1.48</v>
+      </c>
+      <c r="Y48">
+        <v>41.8</v>
+      </c>
+      <c r="Z48">
+        <v>2.78</v>
+      </c>
       <c r="AC48" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4855,22 +5698,25 @@
       <c r="AG48">
         <v>4.144486427307129</v>
       </c>
-      <c r="AH48" t="s">
-        <v>157</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301123</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>6.28</v>
@@ -4888,7 +5734,7 @@
         <v>57785.37</v>
       </c>
       <c r="J49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K49">
         <v>4</v>
@@ -4929,8 +5775,23 @@
       <c r="W49">
         <v>0.46</v>
       </c>
+      <c r="X49">
+        <v>1.74</v>
+      </c>
+      <c r="Y49">
+        <v>34.98</v>
+      </c>
+      <c r="Z49">
+        <v>6.48</v>
+      </c>
       <c r="AC49" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4938,22 +5799,25 @@
       <c r="AG49">
         <v>5.041922569274902</v>
       </c>
-      <c r="AH49" t="s">
-        <v>157</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301128</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>9</v>
@@ -4971,7 +5835,7 @@
         <v>101189</v>
       </c>
       <c r="J50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5012,8 +5876,23 @@
       <c r="W50">
         <v>0.3</v>
       </c>
+      <c r="X50">
+        <v>-2.41</v>
+      </c>
+      <c r="Y50">
+        <v>70.3</v>
+      </c>
+      <c r="Z50">
+        <v>2.18</v>
+      </c>
       <c r="AC50" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -5021,22 +5900,25 @@
       <c r="AG50">
         <v>7.155122756958008</v>
       </c>
-      <c r="AH50" t="s">
-        <v>158</v>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301129</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-8.220000000000001</v>
@@ -5054,7 +5936,7 @@
         <v>46468.18</v>
       </c>
       <c r="J51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5095,8 +5977,23 @@
       <c r="W51">
         <v>-0.86</v>
       </c>
+      <c r="X51">
+        <v>0.45</v>
+      </c>
+      <c r="Y51">
+        <v>31.71</v>
+      </c>
+      <c r="Z51">
+        <v>1.44</v>
+      </c>
       <c r="AC51" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5104,22 +6001,25 @@
       <c r="AG51">
         <v>1.051961898803711</v>
       </c>
-      <c r="AH51" t="s">
-        <v>157</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301161</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>5.79</v>
@@ -5137,7 +6037,7 @@
         <v>83425.8</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -5178,8 +6078,23 @@
       <c r="W52">
         <v>-0.41</v>
       </c>
+      <c r="X52">
+        <v>-1.35</v>
+      </c>
+      <c r="Y52">
+        <v>39.67</v>
+      </c>
+      <c r="Z52">
+        <v>1.41</v>
+      </c>
       <c r="AC52" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5187,22 +6102,25 @@
       <c r="AG52">
         <v>2.950823545455933</v>
       </c>
-      <c r="AH52" t="s">
-        <v>157</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301200</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>4.65</v>
@@ -5220,7 +6138,7 @@
         <v>84394.36</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K53">
         <v>12</v>
@@ -5261,8 +6179,23 @@
       <c r="W53">
         <v>1.22</v>
       </c>
+      <c r="X53">
+        <v>7.09</v>
+      </c>
+      <c r="Y53">
+        <v>107.5</v>
+      </c>
+      <c r="Z53">
+        <v>16.96</v>
+      </c>
       <c r="AC53" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5270,22 +6203,25 @@
       <c r="AG53">
         <v>2.790939807891846</v>
       </c>
-      <c r="AH53" t="s">
-        <v>157</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301306</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>3.25</v>
@@ -5303,7 +6239,7 @@
         <v>64271.35</v>
       </c>
       <c r="J54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <v>13</v>
@@ -5344,8 +6280,23 @@
       <c r="W54">
         <v>-0.12</v>
       </c>
+      <c r="X54">
+        <v>-3.83</v>
+      </c>
+      <c r="Y54">
+        <v>73.39</v>
+      </c>
+      <c r="Z54">
+        <v>4.41</v>
+      </c>
       <c r="AC54" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5353,22 +6304,25 @@
       <c r="AG54">
         <v>5.702068328857422</v>
       </c>
-      <c r="AH54" t="s">
-        <v>157</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301326</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>10.85</v>
@@ -5386,7 +6340,7 @@
         <v>46395.91</v>
       </c>
       <c r="J55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5427,8 +6381,23 @@
       <c r="W55">
         <v>2.81</v>
       </c>
+      <c r="X55">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y55">
+        <v>98.84</v>
+      </c>
+      <c r="Z55">
+        <v>2.84</v>
+      </c>
       <c r="AC55" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>1</v>
@@ -5436,22 +6405,25 @@
       <c r="AG55">
         <v>4.698800563812256</v>
       </c>
-      <c r="AH55" t="s">
-        <v>158</v>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301345</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>6.53</v>
@@ -5469,7 +6441,7 @@
         <v>55405.86</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K56">
         <v>12</v>
@@ -5510,8 +6482,23 @@
       <c r="W56">
         <v>-0.24</v>
       </c>
+      <c r="X56">
+        <v>-2.15</v>
+      </c>
+      <c r="Y56">
+        <v>173</v>
+      </c>
+      <c r="Z56">
+        <v>2.21</v>
+      </c>
       <c r="AC56" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5519,22 +6506,25 @@
       <c r="AG56">
         <v>12.89129257202148</v>
       </c>
-      <c r="AH56" t="s">
-        <v>157</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301357</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-12.39</v>
@@ -5552,7 +6542,7 @@
         <v>146699.26</v>
       </c>
       <c r="J57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -5593,8 +6583,23 @@
       <c r="W57">
         <v>-4.82</v>
       </c>
+      <c r="X57">
+        <v>11.55</v>
+      </c>
+      <c r="Y57">
+        <v>163.3</v>
+      </c>
+      <c r="Z57">
+        <v>16.5</v>
+      </c>
       <c r="AC57" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5602,22 +6607,25 @@
       <c r="AG57">
         <v>2.322812557220459</v>
       </c>
-      <c r="AH57" t="s">
-        <v>157</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301389</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0.55</v>
@@ -5635,7 +6643,7 @@
         <v>110351.21</v>
       </c>
       <c r="J58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K58">
         <v>24</v>
@@ -5676,8 +6684,23 @@
       <c r="W58">
         <v>-2.46</v>
       </c>
+      <c r="X58">
+        <v>-1.72</v>
+      </c>
+      <c r="Y58">
+        <v>51.91</v>
+      </c>
+      <c r="Z58">
+        <v>1.23</v>
+      </c>
       <c r="AC58" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5685,22 +6708,25 @@
       <c r="AG58">
         <v>2.626853466033936</v>
       </c>
-      <c r="AH58" t="s">
-        <v>157</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301397</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>6.98</v>
@@ -5718,7 +6744,7 @@
         <v>62191.65</v>
       </c>
       <c r="J59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -5759,8 +6785,23 @@
       <c r="W59">
         <v>-0.61</v>
       </c>
+      <c r="X59">
+        <v>-2.39</v>
+      </c>
+      <c r="Y59">
+        <v>43.98</v>
+      </c>
+      <c r="Z59">
+        <v>7.85</v>
+      </c>
       <c r="AC59" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5768,22 +6809,25 @@
       <c r="AG59">
         <v>3.840555191040039</v>
       </c>
-      <c r="AH59" t="s">
-        <v>157</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301399</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>12.07</v>
@@ -5801,7 +6845,7 @@
         <v>44654.57</v>
       </c>
       <c r="J60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5842,8 +6886,23 @@
       <c r="W60">
         <v>2.21</v>
       </c>
+      <c r="X60">
+        <v>1.17</v>
+      </c>
+      <c r="Y60">
+        <v>24.45</v>
+      </c>
+      <c r="Z60">
+        <v>3.3</v>
+      </c>
       <c r="AC60" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5851,22 +6910,25 @@
       <c r="AG60">
         <v>3.629363536834717</v>
       </c>
-      <c r="AH60" t="s">
-        <v>157</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301489</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>5.69</v>
@@ -5884,7 +6946,7 @@
         <v>130443.14</v>
       </c>
       <c r="J61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K61">
         <v>7</v>
@@ -5925,8 +6987,23 @@
       <c r="W61">
         <v>0.93</v>
       </c>
+      <c r="X61">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>151.5</v>
+      </c>
+      <c r="Z61">
+        <v>11.21</v>
+      </c>
       <c r="AC61" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -5934,22 +7011,25 @@
       <c r="AG61">
         <v>4.330451011657715</v>
       </c>
-      <c r="AH61" t="s">
-        <v>157</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301529</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-2.19</v>
@@ -5967,7 +7047,7 @@
         <v>26568.11</v>
       </c>
       <c r="J62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K62">
         <v>15</v>
@@ -6008,8 +7088,23 @@
       <c r="W62">
         <v>-0.25</v>
       </c>
+      <c r="X62">
+        <v>-0.78</v>
+      </c>
+      <c r="Y62">
+        <v>75.45</v>
+      </c>
+      <c r="Z62">
+        <v>4.11</v>
+      </c>
       <c r="AC62" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6017,22 +7112,25 @@
       <c r="AG62">
         <v>2.832180738449097</v>
       </c>
-      <c r="AH62" t="s">
-        <v>157</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688039</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-8.720000000000001</v>
@@ -6050,7 +7148,7 @@
         <v>52157.03</v>
       </c>
       <c r="J63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K63">
         <v>6</v>
@@ -6091,8 +7189,23 @@
       <c r="W63">
         <v>-0.86</v>
       </c>
+      <c r="X63">
+        <v>1.58</v>
+      </c>
+      <c r="Y63">
+        <v>56.3</v>
+      </c>
+      <c r="Z63">
+        <v>4.22</v>
+      </c>
       <c r="AC63" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6100,22 +7213,25 @@
       <c r="AG63">
         <v>1.686973094940186</v>
       </c>
-      <c r="AH63" t="s">
-        <v>157</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688110</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-2.32</v>
@@ -6133,7 +7249,7 @@
         <v>334906.24</v>
       </c>
       <c r="J64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K64">
         <v>9</v>
@@ -6174,8 +7290,23 @@
       <c r="W64">
         <v>0.29</v>
       </c>
+      <c r="X64">
+        <v>14.66</v>
+      </c>
+      <c r="Y64">
+        <v>88.26000000000001</v>
+      </c>
+      <c r="Z64">
+        <v>23.44</v>
+      </c>
       <c r="AC64" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6183,22 +7314,25 @@
       <c r="AG64">
         <v>3.570661544799805</v>
       </c>
-      <c r="AH64" t="s">
-        <v>157</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688167</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-1.53</v>
@@ -6216,7 +7350,7 @@
         <v>66150.74000000001</v>
       </c>
       <c r="J65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6257,8 +7391,23 @@
       <c r="W65">
         <v>0.66</v>
       </c>
+      <c r="X65">
+        <v>-1.22</v>
+      </c>
+      <c r="Y65">
+        <v>101.98</v>
+      </c>
+      <c r="Z65">
+        <v>-0.04</v>
+      </c>
       <c r="AC65" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6266,22 +7415,25 @@
       <c r="AG65">
         <v>8.73879337310791</v>
       </c>
-      <c r="AH65" t="s">
-        <v>158</v>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688210</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-9.199999999999999</v>
@@ -6299,7 +7451,7 @@
         <v>30766.58</v>
       </c>
       <c r="J66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -6340,8 +7492,23 @@
       <c r="W66">
         <v>-0.32</v>
       </c>
+      <c r="X66">
+        <v>3.21</v>
+      </c>
+      <c r="Y66">
+        <v>41.3</v>
+      </c>
+      <c r="Z66">
+        <v>5.2</v>
+      </c>
       <c r="AC66" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6349,22 +7516,25 @@
       <c r="AG66">
         <v>2.532517194747925</v>
       </c>
-      <c r="AH66" t="s">
-        <v>157</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688379</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>17.78</v>
@@ -6382,7 +7552,7 @@
         <v>55818.65</v>
       </c>
       <c r="J67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6423,8 +7593,23 @@
       <c r="W67">
         <v>0.84</v>
       </c>
+      <c r="X67">
+        <v>-2.97</v>
+      </c>
+      <c r="Y67">
+        <v>52.19</v>
+      </c>
+      <c r="Z67">
+        <v>1.14</v>
+      </c>
       <c r="AC67" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>1</v>
@@ -6432,22 +7617,25 @@
       <c r="AG67">
         <v>3.590900421142578</v>
       </c>
-      <c r="AH67" t="s">
-        <v>158</v>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688500</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-3.59</v>
@@ -6465,7 +7653,7 @@
         <v>41969.11</v>
       </c>
       <c r="J68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K68">
         <v>6</v>
@@ -6506,8 +7694,23 @@
       <c r="W68">
         <v>0.04</v>
       </c>
+      <c r="X68">
+        <v>-1.01</v>
+      </c>
+      <c r="Y68">
+        <v>86.02</v>
+      </c>
+      <c r="Z68">
+        <v>2.4</v>
+      </c>
       <c r="AC68" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6515,22 +7718,25 @@
       <c r="AG68">
         <v>1.33362352848053</v>
       </c>
-      <c r="AH68" t="s">
-        <v>157</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688507</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-4.98</v>
@@ -6548,7 +7754,7 @@
         <v>69756.06</v>
       </c>
       <c r="J69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6589,8 +7795,23 @@
       <c r="W69">
         <v>-0.46</v>
       </c>
+      <c r="X69">
+        <v>-0.47</v>
+      </c>
+      <c r="Y69">
+        <v>110.88</v>
+      </c>
+      <c r="Z69">
+        <v>1.65</v>
+      </c>
       <c r="AC69" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6598,22 +7819,25 @@
       <c r="AG69">
         <v>3.897907733917236</v>
       </c>
-      <c r="AH69" t="s">
-        <v>157</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688556</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>3.67</v>
@@ -6631,7 +7855,7 @@
         <v>83275.36</v>
       </c>
       <c r="J70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K70">
         <v>10</v>
@@ -6672,8 +7896,23 @@
       <c r="W70">
         <v>0.74</v>
       </c>
+      <c r="X70">
+        <v>-2.96</v>
+      </c>
+      <c r="Y70">
+        <v>12.38</v>
+      </c>
+      <c r="Z70">
+        <v>-0.48</v>
+      </c>
       <c r="AC70" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6681,22 +7920,25 @@
       <c r="AG70">
         <v>1.437241554260254</v>
       </c>
-      <c r="AH70" t="s">
-        <v>157</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688621</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>1.72</v>
@@ -6714,7 +7956,7 @@
         <v>31304.9</v>
       </c>
       <c r="J71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K71">
         <v>5</v>
@@ -6755,8 +7997,23 @@
       <c r="W71">
         <v>0</v>
       </c>
+      <c r="X71">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="Y71">
+        <v>71.17</v>
+      </c>
+      <c r="Z71">
+        <v>12.17</v>
+      </c>
       <c r="AC71" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6764,22 +8021,25 @@
       <c r="AG71">
         <v>0.8215097188949585</v>
       </c>
-      <c r="AH71" t="s">
-        <v>157</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688630</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>10.51</v>
@@ -6797,7 +8057,7 @@
         <v>137578.42</v>
       </c>
       <c r="J72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K72">
         <v>12</v>
@@ -6838,8 +8098,23 @@
       <c r="W72">
         <v>-0.06</v>
       </c>
+      <c r="X72">
+        <v>6</v>
+      </c>
+      <c r="Y72">
+        <v>146.98</v>
+      </c>
+      <c r="Z72">
+        <v>8.93</v>
+      </c>
       <c r="AC72" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6847,22 +8122,25 @@
       <c r="AG72">
         <v>6.841414451599121</v>
       </c>
-      <c r="AH72" t="s">
-        <v>157</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688711</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-0.27</v>
@@ -6880,7 +8158,7 @@
         <v>31553.92</v>
       </c>
       <c r="J73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -6921,8 +8199,23 @@
       <c r="W73">
         <v>-0.32</v>
       </c>
+      <c r="X73">
+        <v>-1.81</v>
+      </c>
+      <c r="Y73">
+        <v>29.83</v>
+      </c>
+      <c r="Z73">
+        <v>1.46</v>
+      </c>
       <c r="AC73" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6930,22 +8223,25 @@
       <c r="AG73">
         <v>4.571560382843018</v>
       </c>
-      <c r="AH73" t="s">
-        <v>157</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688788</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-1.13</v>
@@ -6963,7 +8259,7 @@
         <v>76056.53999999999</v>
       </c>
       <c r="J74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -7004,8 +8300,23 @@
       <c r="W74">
         <v>-0.53</v>
       </c>
+      <c r="X74">
+        <v>1.48</v>
+      </c>
+      <c r="Y74">
+        <v>76.15000000000001</v>
+      </c>
+      <c r="Z74">
+        <v>2.56</v>
+      </c>
       <c r="AC74" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7013,22 +8324,25 @@
       <c r="AG74">
         <v>4.061690807342529</v>
       </c>
-      <c r="AH74" t="s">
-        <v>157</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688800</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-5.94</v>
@@ -7046,7 +8360,7 @@
         <v>124230.53</v>
       </c>
       <c r="J75" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7087,8 +8401,23 @@
       <c r="W75">
         <v>-0.47</v>
       </c>
+      <c r="X75">
+        <v>2.46</v>
+      </c>
+      <c r="Y75">
+        <v>68.55</v>
+      </c>
+      <c r="Z75">
+        <v>2.77</v>
+      </c>
       <c r="AC75" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7096,8 +8425,11 @@
       <c r="AG75">
         <v>8.3446044921875</v>
       </c>
-      <c r="AH75" t="s">
-        <v>157</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
